--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\FSE Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\PhpstormProjects\it-fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA3CC53-1550-47AA-AAD7-441909ACF75B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB215A-EB38-4C13-9248-1156B8E44C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,12 +758,6 @@
     </r>
   </si>
   <si>
-    <t>12672e2846867c5f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a57bffedf8856b64c95e946e1ec3c8081182223cad34d0dadec5d50f8da09c18.5b5aadfa26^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>b1c585158ec44531</t>
   </si>
   <si>
@@ -857,30 +851,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.a57bffedf8856b64c95e946e1ec3c8081182223cad34d0dadec5d50f8da09c18.99f389e4db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>b9febbe1cddebe23</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68e476b5d5aeca7b0e3b5ca867106c32e40cad05a490f6b08a24063cceed7e7e.b4b13f45dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>561e429bd758b177</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.fcf1e4bf9cc9c1083647b91463e86f49c6961406c37055c7eb8ad13937a519db.a5ec9182c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0bc2a46fa4760528</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bf7db3a1fea244ba0c173404b5abb382def24d3bc547ca4f410bae2a311cdf85.7ac27dfb42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f898b9bb4e5c2d1d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.182dc6b90f1c9cd913c39a6b5506f582caba9ddeadafe32f5bdbac25efd705ac.2821430401^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>970eb2ed49393494</t>
   </si>
   <si>
@@ -1158,6 +1128,36 @@
   </si>
   <si>
     <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ],[ERRORE-b95|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime\/high deve essere presente solo nel caso in cui lo 'statusCode' sia 'completed'oppure'aborted']</t>
+  </si>
+  <si>
+    <t>581801d64fb2a942</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68e476b5d5aeca7b0e3b5ca867106c32e40cad05a490f6b08a24063cceed7e7e.321b9779d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>244ff80ca8af6672</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.860fdf0424^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3aa91dd4c62f6f44</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.1a3a0e3026^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6b93d7a12a6440c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.6137c831e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cefd0e3c1c7412a1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.b3e4f0a70e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1829,6 +1829,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3199,10 +3202,10 @@
   <dimension ref="A1:O905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3415,16 +3418,16 @@
         <v>31</v>
       </c>
       <c r="F10" s="20">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="G10" s="43">
-        <v>0.41087962962962959</v>
+        <v>0.41500000000000004</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>152</v>
@@ -3439,7 +3442,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="17">
         <v>7</v>
       </c>
@@ -3462,10 +3465,10 @@
         <v>0.41449074074074077</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>152</v>
@@ -3503,10 +3506,10 @@
         <v>0.42420138888888892</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>152</v>
@@ -3521,7 +3524,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="17">
         <v>9</v>
       </c>
@@ -3544,10 +3547,10 @@
         <v>0.42925925925925923</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>152</v>
@@ -3562,7 +3565,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="147" customHeight="1">
+    <row r="14" spans="1:15" ht="147" customHeight="1" thickBot="1">
       <c r="A14" s="17">
         <v>24</v>
       </c>
@@ -3579,16 +3582,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="20">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="G14" s="43">
-        <v>0.48298611111111112</v>
+        <v>0.39851851851851849</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>152</v>
@@ -3603,7 +3606,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="17">
         <v>25</v>
       </c>
@@ -3620,16 +3623,16 @@
         <v>45</v>
       </c>
       <c r="F15" s="20">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="G15" s="44">
-        <v>0.48519675925925926</v>
+        <v>0.41728009259259258</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>191</v>
+        <v>283</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>152</v>
@@ -3644,7 +3647,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="17">
         <v>26</v>
       </c>
@@ -3661,16 +3664,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="G16" s="43">
-        <v>0.48697916666666669</v>
+        <v>0.42005787037037035</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>152</v>
@@ -3702,16 +3705,16 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="G17" s="52">
-        <v>0.48890046296296297</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>194</v>
+        <v>0.42237268518518517</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>287</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="J17" s="54" t="s">
         <v>152</v>
@@ -3749,13 +3752,13 @@
         <v>0.63709490740740737</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>152</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>50</v>
@@ -3792,13 +3795,13 @@
         <v>0.63814814814814813</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I19" s="65" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>50</v>
@@ -3835,13 +3838,13 @@
         <v>0.63067129629629626</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>50</v>
@@ -3878,13 +3881,13 @@
         <v>0.62907407407407401</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I21" s="58" t="s">
         <v>153</v>
       </c>
       <c r="J21" s="59" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>50</v>
@@ -3927,7 +3930,7 @@
         <v>152</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>50</v>
@@ -3970,7 +3973,7 @@
         <v>152</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>50</v>
@@ -4007,13 +4010,13 @@
         <v>0.43149305555555556</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>50</v>
@@ -4050,13 +4053,13 @@
         <v>0.43532407407407409</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>50</v>
@@ -4093,13 +4096,13 @@
         <v>0.44012731481481482</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>50</v>
@@ -4136,13 +4139,13 @@
         <v>0.44226851851851851</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>50</v>
@@ -4179,13 +4182,13 @@
         <v>0.4443981481481481</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>50</v>
@@ -4222,13 +4225,13 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>50</v>
@@ -4265,13 +4268,13 @@
         <v>0.45083333333333336</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>50</v>
@@ -4308,13 +4311,13 @@
         <v>0.4528240740740741</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>50</v>
@@ -4351,13 +4354,13 @@
         <v>0.45454861111111106</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>50</v>
@@ -4394,13 +4397,13 @@
         <v>0.45699074074074075</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>50</v>
@@ -4434,16 +4437,16 @@
         <v>44964</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>50</v>
@@ -4480,13 +4483,13 @@
         <v>0.46509259259259261</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>50</v>
@@ -4523,13 +4526,13 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>50</v>
@@ -4569,10 +4572,10 @@
         <v>4787274895692470</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>50</v>
@@ -4609,13 +4612,13 @@
         <v>0.49763888888888891</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>50</v>
@@ -4652,13 +4655,13 @@
         <v>0.49934027777777779</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>50</v>
@@ -4695,13 +4698,13 @@
         <v>0.50121527777777775</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>50</v>
@@ -4738,13 +4741,13 @@
         <v>0.50292824074074072</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>50</v>
@@ -4781,13 +4784,13 @@
         <v>0.50474537037037037</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>50</v>
@@ -4824,13 +4827,13 @@
         <v>0.50670138888888883</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>50</v>
@@ -4867,13 +4870,13 @@
         <v>0.50885416666666672</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="K44" s="48" t="s">
         <v>50</v>
@@ -4910,13 +4913,13 @@
         <v>0.51206018518518526</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J45" s="48" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>50</v>
@@ -4953,13 +4956,13 @@
         <v>0.5136574074074074</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>50</v>
@@ -4996,13 +4999,13 @@
         <v>0.51543981481481482</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J47" s="48" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>50</v>
@@ -5039,13 +5042,13 @@
         <v>0.51703703703703707</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>50</v>
@@ -5082,13 +5085,13 @@
         <v>0.51885416666666673</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>50</v>
@@ -5125,13 +5128,13 @@
         <v>0.52046296296296302</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>50</v>
@@ -5168,13 +5171,13 @@
         <v>0.52236111111111116</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J51" s="48" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>50</v>
@@ -5211,13 +5214,13 @@
         <v>0.52488425925925919</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>50</v>
@@ -5254,13 +5257,13 @@
         <v>0.52700231481481474</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>50</v>
@@ -5297,13 +5300,13 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K54" s="48" t="s">
         <v>50</v>
@@ -5340,13 +5343,13 @@
         <v>0.5320138888888889</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J55" s="48" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>50</v>
@@ -5383,13 +5386,13 @@
         <v>0.53622685185185182</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J56" s="48" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>50</v>
@@ -5426,13 +5429,13 @@
         <v>0.5387615740740741</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>50</v>
@@ -5469,13 +5472,13 @@
         <v>0.5408680555555555</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>50</v>
@@ -5512,13 +5515,13 @@
         <v>0.54289351851851853</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>50</v>
@@ -5555,13 +5558,13 @@
         <v>0.5449074074074074</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>50</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\PhpstormProjects\it-fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\fse\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB215A-EB38-4C13-9248-1156B8E44C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B98885-F962-45C1-A65C-418597E6BFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,24 +758,6 @@
     </r>
   </si>
   <si>
-    <t>b1c585158ec44531</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a57bffedf8856b64c95e946e1ec3c8081182223cad34d0dadec5d50f8da09c18.1831d18e1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bf71f385f9bf158d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a57bffedf8856b64c95e946e1ec3c8081182223cad34d0dadec5d50f8da09c18.6910c58be0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>115804186355aa4f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a57bffedf8856b64c95e946e1ec3c8081182223cad34d0dadec5d50f8da09c18.d3c6349c3c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>a922678da578bbed</t>
   </si>
   <si>
@@ -1130,34 +1112,52 @@
     <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ],[ERRORE-b95|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime\/high deve essere presente solo nel caso in cui lo 'statusCode' sia 'completed'oppure'aborted']</t>
   </si>
   <si>
-    <t>581801d64fb2a942</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68e476b5d5aeca7b0e3b5ca867106c32e40cad05a490f6b08a24063cceed7e7e.321b9779d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>244ff80ca8af6672</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.860fdf0424^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3aa91dd4c62f6f44</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.1a3a0e3026^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b93d7a12a6440c0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.6137c831e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cefd0e3c1c7412a1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.b3e4f0a70e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>92a4c919b9e6beba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.91cc56cb4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.a0eb66afaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>78b3ffc4de9ee528</t>
+  </si>
+  <si>
+    <t>dbad1c2fafb61870</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.19ab2431bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f84927cd2592885c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.072acc06dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a50163b38f7be169</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.083a650135^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>457e5a71f69180cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.7fa69c1290^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0957d96ca0d524ed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.b6a311095f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>30daff292f5a2b07</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.6c550d0281^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1808,6 +1808,12 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,9 +1835,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3205,7 +3208,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3238,12 +3241,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="72"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3256,14 +3259,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3276,12 +3279,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3295,12 +3298,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="72"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3313,8 +3316,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3418,15 +3421,15 @@
         <v>31</v>
       </c>
       <c r="F10" s="20">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="G10" s="43">
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="H10" s="46" t="s">
+        <v>0.70515046296296291</v>
+      </c>
+      <c r="H10" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="53" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="22" t="s">
@@ -3459,16 +3462,16 @@
         <v>33</v>
       </c>
       <c r="F11" s="20">
-        <v>44964</v>
+        <v>44999</v>
       </c>
       <c r="G11" s="43">
-        <v>0.41449074074074077</v>
+        <v>0.70800925925925917</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>152</v>
@@ -3483,7 +3486,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="17">
         <v>8</v>
       </c>
@@ -3500,16 +3503,16 @@
         <v>35</v>
       </c>
       <c r="F12" s="20">
-        <v>44964</v>
+        <v>44999</v>
       </c>
       <c r="G12" s="43">
-        <v>0.42420138888888892</v>
+        <v>0.71030092592592586</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>152</v>
@@ -3541,16 +3544,16 @@
         <v>37</v>
       </c>
       <c r="F13" s="20">
-        <v>44964</v>
+        <v>44999</v>
       </c>
       <c r="G13" s="43">
-        <v>0.42925925925925923</v>
+        <v>0.71241898148148142</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>152</v>
@@ -3582,16 +3585,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="20">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="G14" s="43">
-        <v>0.39851851851851849</v>
+        <v>0.69457175925925929</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>152</v>
@@ -3623,16 +3626,16 @@
         <v>45</v>
       </c>
       <c r="F15" s="20">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="G15" s="44">
-        <v>0.41728009259259258</v>
+        <v>0.69695601851851852</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>152</v>
@@ -3664,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="G16" s="43">
-        <v>0.42005787037037035</v>
+        <v>0.69894675925925931</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>152</v>
@@ -3705,16 +3708,16 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="G17" s="52">
-        <v>0.42237268518518517</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>287</v>
+        <v>0.70158564814814817</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J17" s="54" t="s">
         <v>152</v>
@@ -3752,13 +3755,13 @@
         <v>0.63709490740740737</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>152</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>50</v>
@@ -3795,13 +3798,13 @@
         <v>0.63814814814814813</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I19" s="65" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>50</v>
@@ -3838,13 +3841,13 @@
         <v>0.63067129629629626</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>50</v>
@@ -3881,13 +3884,13 @@
         <v>0.62907407407407401</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I21" s="58" t="s">
         <v>153</v>
       </c>
       <c r="J21" s="59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>50</v>
@@ -3930,7 +3933,7 @@
         <v>152</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>50</v>
@@ -3973,7 +3976,7 @@
         <v>152</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>50</v>
@@ -4010,13 +4013,13 @@
         <v>0.43149305555555556</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>50</v>
@@ -4053,13 +4056,13 @@
         <v>0.43532407407407409</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>50</v>
@@ -4096,13 +4099,13 @@
         <v>0.44012731481481482</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>50</v>
@@ -4139,13 +4142,13 @@
         <v>0.44226851851851851</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>50</v>
@@ -4182,13 +4185,13 @@
         <v>0.4443981481481481</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>50</v>
@@ -4225,13 +4228,13 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>50</v>
@@ -4268,13 +4271,13 @@
         <v>0.45083333333333336</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>50</v>
@@ -4311,13 +4314,13 @@
         <v>0.4528240740740741</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>50</v>
@@ -4354,13 +4357,13 @@
         <v>0.45454861111111106</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>50</v>
@@ -4397,13 +4400,13 @@
         <v>0.45699074074074075</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>50</v>
@@ -4437,16 +4440,16 @@
         <v>44964</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>50</v>
@@ -4483,13 +4486,13 @@
         <v>0.46509259259259261</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>50</v>
@@ -4526,13 +4529,13 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>50</v>
@@ -4572,10 +4575,10 @@
         <v>4787274895692470</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>50</v>
@@ -4612,13 +4615,13 @@
         <v>0.49763888888888891</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>50</v>
@@ -4655,13 +4658,13 @@
         <v>0.49934027777777779</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>50</v>
@@ -4698,13 +4701,13 @@
         <v>0.50121527777777775</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>50</v>
@@ -4741,13 +4744,13 @@
         <v>0.50292824074074072</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>50</v>
@@ -4784,13 +4787,13 @@
         <v>0.50474537037037037</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>50</v>
@@ -4827,13 +4830,13 @@
         <v>0.50670138888888883</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>50</v>
@@ -4870,13 +4873,13 @@
         <v>0.50885416666666672</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K44" s="48" t="s">
         <v>50</v>
@@ -4913,13 +4916,13 @@
         <v>0.51206018518518526</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J45" s="48" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>50</v>
@@ -4956,13 +4959,13 @@
         <v>0.5136574074074074</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>50</v>
@@ -4999,13 +5002,13 @@
         <v>0.51543981481481482</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J47" s="48" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>50</v>
@@ -5042,13 +5045,13 @@
         <v>0.51703703703703707</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>50</v>
@@ -5085,13 +5088,13 @@
         <v>0.51885416666666673</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>50</v>
@@ -5128,13 +5131,13 @@
         <v>0.52046296296296302</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>50</v>
@@ -5171,13 +5174,13 @@
         <v>0.52236111111111116</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J51" s="48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>50</v>
@@ -5214,13 +5217,13 @@
         <v>0.52488425925925919</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>50</v>
@@ -5257,13 +5260,13 @@
         <v>0.52700231481481474</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>50</v>
@@ -5300,13 +5303,13 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K54" s="48" t="s">
         <v>50</v>
@@ -5343,13 +5346,13 @@
         <v>0.5320138888888889</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J55" s="48" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>50</v>
@@ -5386,13 +5389,13 @@
         <v>0.53622685185185182</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J56" s="48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>50</v>
@@ -5429,13 +5432,13 @@
         <v>0.5387615740740741</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>50</v>
@@ -5472,13 +5475,13 @@
         <v>0.5408680555555555</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>50</v>
@@ -5515,13 +5518,13 @@
         <v>0.54289351851851853</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>50</v>
@@ -5558,13 +5561,13 @@
         <v>0.5449074074074074</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>50</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\fse\v.1.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B98885-F962-45C1-A65C-418597E6BFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72424CE-4E02-467C-9A30-0C5AA47CDC68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,52 +1112,52 @@
     <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ],[ERRORE-b95|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime\/high deve essere presente solo nel caso in cui lo 'statusCode' sia 'completed'oppure'aborted']</t>
   </si>
   <si>
-    <t>92a4c919b9e6beba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.91cc56cb4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.a0eb66afaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>78b3ffc4de9ee528</t>
-  </si>
-  <si>
-    <t>dbad1c2fafb61870</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.19ab2431bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f84927cd2592885c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.072acc06dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a50163b38f7be169</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.083a650135^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>457e5a71f69180cc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.7fa69c1290^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0957d96ca0d524ed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.b6a311095f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>30daff292f5a2b07</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.6c550d0281^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>696885cc5146baf5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.4c88ef3550^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>651f4e4778a157f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.e04a911943^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ac32ff0c42ae3368</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.3511668560^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e6f97f57d4a92185</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.c2ba51fdff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>13879d3e262cbc46</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.85cb9549ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3366577eee5e1609</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.dbcdf5378e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8ae372ee97dce03b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.caa58025fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d45744a047392279</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.3922028a56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3208,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3421,16 +3421,16 @@
         <v>31</v>
       </c>
       <c r="F10" s="20">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="G10" s="43">
-        <v>0.70515046296296291</v>
+        <v>0.46535879629629634</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>152</v>
@@ -3462,16 +3462,16 @@
         <v>33</v>
       </c>
       <c r="F11" s="20">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="G11" s="43">
-        <v>0.70800925925925917</v>
+        <v>0.46849537037037042</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>152</v>
@@ -3503,16 +3503,16 @@
         <v>35</v>
       </c>
       <c r="F12" s="20">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="G12" s="43">
-        <v>0.71030092592592586</v>
+        <v>0.48872685185185188</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>152</v>
@@ -3544,16 +3544,16 @@
         <v>37</v>
       </c>
       <c r="F13" s="20">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="G13" s="43">
-        <v>0.71241898148148142</v>
+        <v>0.59870370370370374</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>152</v>
@@ -3585,16 +3585,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="20">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="G14" s="43">
-        <v>0.69457175925925929</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>273</v>
+        <v>0.45846064814814813</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>281</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>152</v>
@@ -3626,16 +3626,16 @@
         <v>45</v>
       </c>
       <c r="F15" s="20">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="G15" s="44">
-        <v>0.69695601851851852</v>
+        <v>0.40320601851851851</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>152</v>
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="G16" s="43">
-        <v>0.69894675925925931</v>
+        <v>0.45462962962962966</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>152</v>
@@ -3708,16 +3708,16 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="G17" s="52">
-        <v>0.70158564814814817</v>
+        <v>0.4607175925925926</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J17" s="54" t="s">
         <v>152</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72424CE-4E02-467C-9A30-0C5AA47CDC68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59BE9C-37E1-400A-93EF-16AC8B959559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,52 +1112,52 @@
     <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ],[ERRORE-b95|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime\/high deve essere presente solo nel caso in cui lo 'statusCode' sia 'completed'oppure'aborted']</t>
   </si>
   <si>
-    <t>696885cc5146baf5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.4c88ef3550^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>651f4e4778a157f8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.e04a911943^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ac32ff0c42ae3368</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.3511668560^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e6f97f57d4a92185</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.c2ba51fdff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>13879d3e262cbc46</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.85cb9549ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3366577eee5e1609</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.dbcdf5378e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8ae372ee97dce03b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.caa58025fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d45744a047392279</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.3922028a56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3c4a9c9286a400d9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.2c24b73d8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cb3a19581c9f7862</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.72eb40d0bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>afe552bfb7252fc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.f32e723366^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5a175d987acbc847</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.1b344fc74c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4ca8919df7db2b50</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.d963a09f5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>aba5628336483f3f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.0354fab03f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5a6de3d432f3bb55</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.881242733d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bf32548b4d68ba22</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.64ad13cbfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3208,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3421,10 +3421,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="20">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G10" s="43">
-        <v>0.46535879629629634</v>
+        <v>0.46336805555555555</v>
       </c>
       <c r="H10" s="68" t="s">
         <v>273</v>
@@ -3462,10 +3462,10 @@
         <v>33</v>
       </c>
       <c r="F11" s="20">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G11" s="43">
-        <v>0.46849537037037042</v>
+        <v>0.4659490740740741</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>275</v>
@@ -3503,15 +3503,15 @@
         <v>35</v>
       </c>
       <c r="F12" s="20">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G12" s="43">
-        <v>0.48872685185185188</v>
+        <v>0.46798611111111116</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="49" t="s">
         <v>278</v>
       </c>
       <c r="J12" s="22" t="s">
@@ -3544,10 +3544,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="20">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G13" s="43">
-        <v>0.59870370370370374</v>
+        <v>0.46956018518518516</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>279</v>
@@ -3585,10 +3585,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="20">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="G14" s="43">
-        <v>0.45846064814814813</v>
+        <v>0.63432870370370364</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>281</v>
@@ -3626,10 +3626,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="20">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="G15" s="44">
-        <v>0.40320601851851851</v>
+        <v>0.63581018518518517</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>283</v>
@@ -3667,10 +3667,10 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="G16" s="43">
-        <v>0.45462962962962966</v>
+        <v>0.63710648148148141</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>285</v>
@@ -3708,10 +3708,10 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="G17" s="52">
-        <v>0.4607175925925926</v>
+        <v>0.6385763888888889</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>287</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59BE9C-37E1-400A-93EF-16AC8B959559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C7390-E3E6-4F71-B4D9-85DA95FA47CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,28 +1136,28 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.863a2a5da8e75ced73102148e576def3dea905b8d30d77dbde83119f3a1c4e30.1b344fc74c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>4ca8919df7db2b50</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2cfd4b162e427e8e59a2fedf7d5d138eb696d08b98ad9765da0af1690c77b280.d963a09f5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>aba5628336483f3f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.0354fab03f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5a6de3d432f3bb55</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.881242733d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bf32548b4d68ba22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.64ad13cbfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>c7f04a2b619ff4c2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.74de057f768beb42de17ffc4b8a56100f0bed85947ecacaef111e3d3ec997950.9cf6c969bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ef2664e1d291e61e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.814a664d24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>66d34ce27f9eeb47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.a2a0b98c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>26f92159575782b8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.32417b71f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3208,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3585,15 +3585,15 @@
         <v>43</v>
       </c>
       <c r="F14" s="20">
-        <v>45008</v>
+        <v>45014</v>
       </c>
       <c r="G14" s="43">
-        <v>0.63432870370370364</v>
+        <v>0.61836805555555563</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="49" t="s">
         <v>282</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -3626,10 +3626,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="20">
-        <v>45008</v>
+        <v>45014</v>
       </c>
       <c r="G15" s="44">
-        <v>0.63581018518518517</v>
+        <v>0.62228009259259254</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>283</v>
@@ -3667,10 +3667,10 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>45008</v>
+        <v>45014</v>
       </c>
       <c r="G16" s="43">
-        <v>0.63710648148148141</v>
+        <v>0.62527777777777771</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>285</v>
@@ -3708,10 +3708,10 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>45008</v>
+        <v>45014</v>
       </c>
       <c r="G17" s="52">
-        <v>0.6385763888888889</v>
+        <v>0.62826388888888884</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>287</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C7390-E3E6-4F71-B4D9-85DA95FA47CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA7217-E103-4E6D-8914-2F9D1521B9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="290">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -839,9 +839,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.68e476b5d5aeca7b0e3b5ca867106c32e40cad05a490f6b08a24063cceed7e7e.cb36b0db4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68e476b5d5aeca7b0e3b5ca867106c32e40cad05a490f6b08a24063cceed7e7e.cb7045e301^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2cfc9bbb4a7917cd</t>
   </si>
   <si>
@@ -1148,16 +1145,22 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.3f1bb7c0da3c01e685edd592f3a3ca0b149a399d25b97c0da47118c24a39f59a.814a664d24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>66d34ce27f9eeb47</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.a2a0b98c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>26f92159575782b8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.32417b71f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2fbbea0ff5fc7945</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.455ae2dfc77dd77562c06dc893a49d84795a93e4f86ea2e92006940c870ec044.1d84e17fa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>186c7379a5585a6e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.68fcd1eb684859a314bbf7f7c99037cead480f5bb209ccd4725bd319423e832f.1f99461d95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6578d0e852723211</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.74de057f768beb42de17ffc4b8a56100f0bed85947ecacaef111e3d3ec997950.809de95106^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1747,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1814,6 +1816,7 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,10 +3208,10 @@
   <dimension ref="A1:O905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3426,11 +3429,11 @@
       <c r="G10" s="43">
         <v>0.46336805555555555</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>274</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>152</v>
@@ -3468,10 +3471,10 @@
         <v>0.4659490740740741</v>
       </c>
       <c r="H11" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>152</v>
@@ -3509,10 +3512,10 @@
         <v>0.46798611111111116</v>
       </c>
       <c r="H12" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>277</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>278</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>152</v>
@@ -3550,10 +3553,10 @@
         <v>0.46956018518518516</v>
       </c>
       <c r="H13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>152</v>
@@ -3590,11 +3593,11 @@
       <c r="G14" s="43">
         <v>0.61836805555555563</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>281</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>282</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>152</v>
@@ -3631,11 +3634,11 @@
       <c r="G15" s="44">
         <v>0.62228009259259254</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>283</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>284</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>152</v>
@@ -3667,16 +3670,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="20">
-        <v>45014</v>
+        <v>45022</v>
       </c>
       <c r="G16" s="43">
-        <v>0.62527777777777771</v>
+        <v>0.41989583333333336</v>
       </c>
       <c r="H16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>286</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>152</v>
@@ -3708,18 +3711,18 @@
         <v>49</v>
       </c>
       <c r="F17" s="20">
-        <v>45014</v>
-      </c>
-      <c r="G17" s="52">
-        <v>0.62826388888888884</v>
-      </c>
-      <c r="H17" s="67" t="s">
+        <v>45022</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0.42503472222222222</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="I17" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="53" t="s">
         <v>152</v>
       </c>
       <c r="K17" s="22" t="s">
@@ -3751,17 +3754,17 @@
       <c r="F18" s="21">
         <v>44964</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="65">
         <v>0.63709490740740737</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="62" t="s">
         <v>232</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>50</v>
@@ -3794,17 +3797,17 @@
       <c r="F19" s="21">
         <v>44964</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="65">
         <v>0.63814814814814813</v>
       </c>
-      <c r="H19" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="65" t="s">
+      <c r="H19" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="63" t="s">
-        <v>233</v>
+      <c r="J19" s="62" t="s">
+        <v>232</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>50</v>
@@ -3837,17 +3840,17 @@
       <c r="F20" s="20">
         <v>44964</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="60">
         <v>0.63067129629629626</v>
       </c>
-      <c r="H20" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="I20" s="58" t="s">
+      <c r="H20" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="59" t="s">
-        <v>230</v>
+      <c r="J20" s="58" t="s">
+        <v>229</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>50</v>
@@ -3880,17 +3883,17 @@
       <c r="F21" s="21">
         <v>44964</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="61">
         <v>0.62907407407407401</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="58" t="s">
         <v>229</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>230</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>50</v>
@@ -3923,17 +3926,17 @@
       <c r="F22" s="20">
         <v>44964</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="54">
         <v>0.65</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="J22" s="57" t="s">
-        <v>235</v>
+      <c r="J22" s="56" t="s">
+        <v>234</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>50</v>
@@ -3975,8 +3978,8 @@
       <c r="I23" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="57" t="s">
-        <v>235</v>
+      <c r="J23" s="56" t="s">
+        <v>234</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>50</v>
@@ -4019,7 +4022,7 @@
         <v>156</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>50</v>
@@ -4062,7 +4065,7 @@
         <v>157</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>50</v>
@@ -4105,7 +4108,7 @@
         <v>159</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>50</v>
@@ -4148,7 +4151,7 @@
         <v>162</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>50</v>
@@ -4191,7 +4194,7 @@
         <v>164</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>50</v>
@@ -4234,7 +4237,7 @@
         <v>166</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>50</v>
@@ -4277,7 +4280,7 @@
         <v>168</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>50</v>
@@ -4320,7 +4323,7 @@
         <v>169</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>50</v>
@@ -4363,7 +4366,7 @@
         <v>174</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>50</v>
@@ -4406,7 +4409,7 @@
         <v>173</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>50</v>
@@ -4449,7 +4452,7 @@
         <v>175</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>50</v>
@@ -4492,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>50</v>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="O35" s="24"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="17">
         <v>122</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>181</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>50</v>
@@ -4549,7 +4552,7 @@
       </c>
       <c r="O36" s="24"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="17">
         <v>123</v>
       </c>
@@ -4566,19 +4569,19 @@
         <v>87</v>
       </c>
       <c r="F37" s="20">
-        <v>44964</v>
+        <v>45022</v>
       </c>
       <c r="G37" s="43">
-        <v>0.49559027777777781</v>
-      </c>
-      <c r="H37" s="47">
-        <v>4787274895692470</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>182</v>
+        <v>0.43155092592592598</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>289</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>50</v>
@@ -4592,7 +4595,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="17">
         <v>124</v>
       </c>
@@ -4615,13 +4618,13 @@
         <v>0.49763888888888891</v>
       </c>
       <c r="H38" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>267</v>
+      <c r="J38" s="47" t="s">
+        <v>266</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>50</v>
@@ -4658,13 +4661,13 @@
         <v>0.49934027777777779</v>
       </c>
       <c r="H39" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>264</v>
+      <c r="J39" s="47" t="s">
+        <v>263</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>50</v>
@@ -4701,13 +4704,13 @@
         <v>0.50121527777777775</v>
       </c>
       <c r="H40" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>265</v>
+      <c r="J40" s="47" t="s">
+        <v>264</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>50</v>
@@ -4743,14 +4746,14 @@
       <c r="G41" s="43">
         <v>0.50292824074074072</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" s="49" t="s">
-        <v>266</v>
+      <c r="J41" s="48" t="s">
+        <v>265</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>50</v>
@@ -4787,13 +4790,13 @@
         <v>0.50474537037037037</v>
       </c>
       <c r="H42" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="J42" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>50</v>
@@ -4830,13 +4833,13 @@
         <v>0.50670138888888883</v>
       </c>
       <c r="H43" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J43" s="48" t="s">
-        <v>262</v>
+      <c r="J43" s="47" t="s">
+        <v>261</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>50</v>
@@ -4873,15 +4876,15 @@
         <v>0.50885416666666672</v>
       </c>
       <c r="H44" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="K44" s="48" t="s">
+      <c r="J44" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="K44" s="47" t="s">
         <v>50</v>
       </c>
       <c r="L44" s="22" t="s">
@@ -4909,20 +4912,20 @@
       <c r="E45" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="50">
         <v>44964</v>
       </c>
       <c r="G45" s="43">
         <v>0.51206018518518526</v>
       </c>
       <c r="H45" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I45" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>260</v>
+      <c r="J45" s="47" t="s">
+        <v>259</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>50</v>
@@ -4958,14 +4961,14 @@
       <c r="G46" s="43">
         <v>0.5136574074074074</v>
       </c>
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>259</v>
+      <c r="J46" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>50</v>
@@ -5002,13 +5005,13 @@
         <v>0.51543981481481482</v>
       </c>
       <c r="H47" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I47" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>258</v>
+      <c r="J47" s="47" t="s">
+        <v>257</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>50</v>
@@ -5044,14 +5047,14 @@
       <c r="G48" s="43">
         <v>0.51703703703703707</v>
       </c>
-      <c r="H48" s="49" t="s">
+      <c r="H48" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="I48" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>257</v>
+      <c r="J48" s="47" t="s">
+        <v>256</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>50</v>
@@ -5088,13 +5091,13 @@
         <v>0.51885416666666673</v>
       </c>
       <c r="H49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>256</v>
+      <c r="J49" s="47" t="s">
+        <v>255</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>50</v>
@@ -5131,13 +5134,13 @@
         <v>0.52046296296296302</v>
       </c>
       <c r="H50" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I50" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>255</v>
+      <c r="J50" s="47" t="s">
+        <v>254</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>50</v>
@@ -5174,13 +5177,13 @@
         <v>0.52236111111111116</v>
       </c>
       <c r="H51" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>254</v>
+      <c r="J51" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>50</v>
@@ -5217,13 +5220,13 @@
         <v>0.52488425925925919</v>
       </c>
       <c r="H52" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>253</v>
+      <c r="J52" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>50</v>
@@ -5260,15 +5263,15 @@
         <v>0.52700231481481474</v>
       </c>
       <c r="H53" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="K53" s="48" t="s">
+      <c r="J53" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="K53" s="47" t="s">
         <v>50</v>
       </c>
       <c r="L53" s="22" t="s">
@@ -5296,22 +5299,22 @@
       <c r="E54" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="51">
+      <c r="F54" s="50">
         <v>44964</v>
       </c>
       <c r="G54" s="43">
         <v>0.52986111111111112</v>
       </c>
       <c r="H54" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="J54" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="K54" s="48" t="s">
+      <c r="J54" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="K54" s="47" t="s">
         <v>50</v>
       </c>
       <c r="L54" s="22" t="s">
@@ -5346,13 +5349,13 @@
         <v>0.5320138888888889</v>
       </c>
       <c r="H55" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I55" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="J55" s="48" t="s">
-        <v>250</v>
+      <c r="J55" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>50</v>
@@ -5389,13 +5392,13 @@
         <v>0.53622685185185182</v>
       </c>
       <c r="H56" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="I56" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="J56" s="48" t="s">
-        <v>249</v>
+      <c r="J56" s="47" t="s">
+        <v>248</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>50</v>
@@ -5432,13 +5435,13 @@
         <v>0.5387615740740741</v>
       </c>
       <c r="H57" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I57" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="J57" s="48" t="s">
-        <v>248</v>
+      <c r="J57" s="47" t="s">
+        <v>247</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>50</v>
@@ -5475,13 +5478,13 @@
         <v>0.5408680555555555</v>
       </c>
       <c r="H58" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="I58" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="J58" s="48" t="s">
-        <v>247</v>
+      <c r="J58" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>50</v>
@@ -5511,20 +5514,20 @@
       <c r="E59" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="50">
         <v>44964</v>
       </c>
       <c r="G59" s="43">
         <v>0.54289351851851853</v>
       </c>
       <c r="H59" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="I59" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="J59" s="48" t="s">
-        <v>246</v>
+      <c r="J59" s="47" t="s">
+        <v>245</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>50</v>
@@ -5561,18 +5564,18 @@
         <v>0.5449074074074074</v>
       </c>
       <c r="H60" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I60" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I60" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="K60" s="48" t="s">
+      <c r="J60" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K60" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L60" s="48" t="s">
+      <c r="L60" s="47" t="s">
         <v>149</v>
       </c>
       <c r="M60" s="22"/>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA7217-E103-4E6D-8914-2F9D1521B9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36FDDD7-7752-46D8-8865-C727391ED861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="257">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -980,135 +980,15 @@
     <t>3836e6513479aebf</t>
   </si>
   <si>
-    <t>"Campo token JWT non valido.","detail":"Il campo person_id non \u00e8 valorizzato</t>
-  </si>
-  <si>
     <t>080906c0a27a458e</t>
   </si>
   <si>
     <t>d730fb25-a6eb-11ed-84b0-005056ae7395</t>
   </si>
   <si>
-    <t>TokenRequiredClaimsNotFound","status":401,"detail":"Required token claims not found</t>
-  </si>
-  <si>
     <t>f6f32a5a-a6eb-11ed-84b0-005056ae7395</t>
   </si>
   <si>
-    <t xml:space="preserve">Il sistema evita, tramite appositi controlli, il timeout </t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi. "ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Campo token JWT non valido.","detail":"JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. "[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-11| L'elemento ClinicalDocument\/recordTarget\/patientRole\/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' </t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-14| L'elemento ClinicalDocument\/recordTaget\/patientRole\/patient\/name DEVE riportare gli elementi 'given' e 'family'</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. "Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: TEST]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b5| Sezione Condizioni del paziente e diagnosi alla dimissione: la sezione DEVE essere presente],[ERRORE-b6| Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione DEVE contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry'</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b3| Sezione Decorso Ospedaliero: la sezione DEVE essere presente],[ERRORE-b4| Sezione Decorso Ospedaliero: La sezione deve contenere l'elemento 'text']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry\/observation\/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operaratore l'errore: Errore di sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.5, Codes: 111.1111111111]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: PROVA]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 6]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: Z]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b252|Sezione Terapia farmacologica alla dimissione: entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b33| Sezione Dimissione: l'entry\/act\/entryRelationship relativo all'Esito DEVE contenere  un elemento 'value' valorizzato secondo il value set \"EsitoTrattamento_VPS\" - @codeSystem='2.16.840.1.113883.2.9.6.1.54.5']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b28| Sezione Dimissione: l'entry\/act\/performer\/assignedEntity\/assignedPerson\/name DEVE contenere gli elementi 'family' e 'given']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b168| Sezione Complicanze: l'elemento entry\/observation\/value DEVE essere valorizzato con l'attributo @xsi:type=CD.]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'low' is not valid with respect to its type, 'ts'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'high' is not valid with respect to its type, 'ts'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi. ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'low' is not valid with respect to its type, 'ts'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'high' is not valid with respect to its type, 'ts'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'low' is not valid with respect to its type, 'ts'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[0-9]{1,8}|([0-9]{9,14}|[0-9]{14,14}\\.[0-9]+)([+\\-][0-9]{1,4})?' for type 'ts'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'value' on element 'high' is not valid with respect to its type, 'ts'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b114| Sotto-sezione Anamnesi: l'elemento entry\/organizer\/subject\/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b104| Sotto-sezione Anamnesi: l'elemento entry\/observation\/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato],[ERRORE-b105| Sotto-sezione Anamnesi: l'elemento entry\/observation\/effectiveTime deve essere presente e deve avere l'elemento 'high' valorizzato]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b83| Sezione Triage: l'elemento entry\/observation\/value DEVE essere valorizzato col value set CodiceTriage_VPS]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b11| Sezione Motivo della visita: l'elemento entry\/observation\/value relativo al \"Problema Principale\" DEVE essere valorizzato col value set ProblemaPrincipale_VPS]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b6| Sezione Motivo della Visita: la sezione DEVE contenere l'elemento 'text']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b1| Sezione Modalit\u00e0 di Trasporto: la sezione DEVE essere presente],[ERRORE-b2| Sezione Modalit\u00e0 di Trasporto: la sezione deve contenere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.6.20'],[ERRORE-b3| Sezione Modalit\u00e0 di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi. ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi.","detail":"ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-11| L'elemento ClinicalDocument\/recordTarget\/patientRole\/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-14| L'elemento ClinicalDocument\/recordTaget\/patientRole\/patient\/name DEVE riportare gli elementi 'given' e 'family']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: Z]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Campo token JWT non valido. JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore di sintassi. "ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: PROVA]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore vocabolario. Almeno uno dei seguenti vocaboli non \u00e8 censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 41000]</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore l'errore: Errore semantico. [ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime deve avere l'elemento 'low' valorizzato ],[ERRORE-b95|Sezione Terapia farmacologica alla dimissione: section\/entry\/substanceAdministration\/effectiveTime\/high deve essere presente solo nel caso in cui lo 'statusCode' sia 'completed'oppure'aborted']</t>
-  </si>
-  <si>
     <t>3c4a9c9286a400d9</t>
   </si>
   <si>
@@ -1161,6 +1041,27 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.74de057f768beb42de17ffc4b8a56100f0bed85947ecacaef111e3d3ec997950.809de95106^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico) il dato errato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico) il compito di aggiungere il dato mancante per la pubblicazione FSE</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico) la mancanza del dato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico) il compito di modificare il dato per la pubblicazione FSE</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico) che il documento contiene dati sensibili e non può essere pubblicato.</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico) il dato errato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico) il compito di modificare il dato per la pubblicazione FSE</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico o BackOffice) la mancanza del dato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico o BackOffice) il compito di modificare il dato per la pubblicazione FSE</t>
+  </si>
+  <si>
+    <t>L'errore viene segnalato all'operatore (Medico o BackOffice). L'operatore puo generare il documento ma sta all'utente di BackOffice ritentare l'invio del documento</t>
+  </si>
+  <si>
+    <t>In caso di timeout sta all’operatore di BackOffice eseguire manualmente l'operazione di retry</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1780,14 +1681,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1838,6 +1733,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3207,11 +3105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O905"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3244,12 +3142,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="70"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3262,14 +3160,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="70"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3282,12 +3180,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3301,12 +3199,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="70"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3319,8 +3217,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3429,11 +3327,11 @@
       <c r="G10" s="43">
         <v>0.46336805555555555</v>
       </c>
-      <c r="H10" s="67" t="s">
-        <v>272</v>
+      <c r="H10" s="65" t="s">
+        <v>232</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>152</v>
@@ -3471,10 +3369,10 @@
         <v>0.4659490740740741</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>152</v>
@@ -3512,10 +3410,10 @@
         <v>0.46798611111111116</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>152</v>
@@ -3553,10 +3451,10 @@
         <v>0.46956018518518516</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>152</v>
@@ -3594,10 +3492,10 @@
         <v>0.61836805555555563</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>152</v>
@@ -3635,10 +3533,10 @@
         <v>0.62228009259259254</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>152</v>
@@ -3676,10 +3574,10 @@
         <v>0.41989583333333336</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>152</v>
@@ -3716,11 +3614,11 @@
       <c r="G17" s="51">
         <v>0.42503472222222222</v>
       </c>
-      <c r="H17" s="66" t="s">
-        <v>286</v>
+      <c r="H17" s="64" t="s">
+        <v>246</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>152</v>
@@ -3754,17 +3652,17 @@
       <c r="F18" s="21">
         <v>44964</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="63">
         <v>0.63709490740740737</v>
       </c>
-      <c r="H18" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="I18" s="63" t="s">
+      <c r="H18" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="62" t="s">
-        <v>232</v>
+      <c r="J18" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>50</v>
@@ -3797,17 +3695,17 @@
       <c r="F19" s="21">
         <v>44964</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="63">
         <v>0.63814814814814813</v>
       </c>
-      <c r="H19" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="I19" s="64" t="s">
+      <c r="H19" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="62" t="s">
-        <v>232</v>
+      <c r="J19" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>50</v>
@@ -3840,17 +3738,17 @@
       <c r="F20" s="20">
         <v>44964</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="58">
         <v>0.63067129629629626</v>
       </c>
-      <c r="H20" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="57" t="s">
+      <c r="H20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="58" t="s">
-        <v>229</v>
+      <c r="J20" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>50</v>
@@ -3883,17 +3781,17 @@
       <c r="F21" s="21">
         <v>44964</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="59">
         <v>0.62907407407407401</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="58" t="s">
-        <v>229</v>
+      <c r="J21" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>50</v>
@@ -3935,8 +3833,8 @@
       <c r="I22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="J22" s="56" t="s">
-        <v>234</v>
+      <c r="J22" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>50</v>
@@ -3978,8 +3876,8 @@
       <c r="I23" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="56" t="s">
-        <v>234</v>
+      <c r="J23" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>50</v>
@@ -4022,7 +3920,7 @@
         <v>156</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>50</v>
@@ -4065,7 +3963,7 @@
         <v>157</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>50</v>
@@ -4108,7 +4006,7 @@
         <v>159</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>50</v>
@@ -4151,7 +4049,7 @@
         <v>162</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>50</v>
@@ -4194,7 +4092,7 @@
         <v>164</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>50</v>
@@ -4237,7 +4135,7 @@
         <v>166</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>50</v>
@@ -4280,7 +4178,7 @@
         <v>168</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>50</v>
@@ -4323,7 +4221,7 @@
         <v>169</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>50</v>
@@ -4366,7 +4264,7 @@
         <v>174</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>50</v>
@@ -4409,7 +4307,7 @@
         <v>173</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>50</v>
@@ -4452,7 +4350,7 @@
         <v>175</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>50</v>
@@ -4495,7 +4393,7 @@
         <v>179</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>50</v>
@@ -4538,7 +4436,7 @@
         <v>181</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>50</v>
@@ -4575,13 +4473,13 @@
         <v>0.43155092592592598</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="I37" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>267</v>
+        <v>248</v>
+      </c>
+      <c r="I37" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>50</v>
@@ -4623,8 +4521,8 @@
       <c r="I38" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="J38" s="47" t="s">
-        <v>266</v>
+      <c r="J38" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>50</v>
@@ -4666,8 +4564,8 @@
       <c r="I39" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="47" t="s">
-        <v>263</v>
+      <c r="J39" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>50</v>
@@ -4709,8 +4607,8 @@
       <c r="I40" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="47" t="s">
-        <v>264</v>
+      <c r="J40" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>50</v>
@@ -4752,8 +4650,8 @@
       <c r="I41" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="J41" s="48" t="s">
-        <v>265</v>
+      <c r="J41" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>50</v>
@@ -4796,7 +4694,7 @@
         <v>191</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>50</v>
@@ -4838,8 +4736,8 @@
       <c r="I43" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J43" s="47" t="s">
-        <v>261</v>
+      <c r="J43" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>50</v>
@@ -4881,8 +4779,8 @@
       <c r="I44" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="J44" s="47" t="s">
-        <v>260</v>
+      <c r="J44" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K44" s="47" t="s">
         <v>50</v>
@@ -4924,8 +4822,8 @@
       <c r="I45" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="J45" s="47" t="s">
-        <v>259</v>
+      <c r="J45" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>50</v>
@@ -4967,8 +4865,8 @@
       <c r="I46" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="J46" s="47" t="s">
-        <v>258</v>
+      <c r="J46" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>50</v>
@@ -5010,8 +4908,8 @@
       <c r="I47" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="J47" s="47" t="s">
-        <v>257</v>
+      <c r="J47" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>50</v>
@@ -5053,8 +4951,8 @@
       <c r="I48" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="J48" s="47" t="s">
-        <v>256</v>
+      <c r="J48" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>50</v>
@@ -5096,8 +4994,8 @@
       <c r="I49" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="J49" s="47" t="s">
-        <v>255</v>
+      <c r="J49" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>50</v>
@@ -5139,8 +5037,8 @@
       <c r="I50" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="47" t="s">
-        <v>254</v>
+      <c r="J50" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>50</v>
@@ -5182,8 +5080,8 @@
       <c r="I51" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="J51" s="47" t="s">
-        <v>253</v>
+      <c r="J51" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>50</v>
@@ -5225,8 +5123,8 @@
       <c r="I52" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="J52" s="47" t="s">
-        <v>252</v>
+      <c r="J52" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>50</v>
@@ -5268,7 +5166,7 @@
       <c r="I53" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="22" t="s">
         <v>251</v>
       </c>
       <c r="K53" s="47" t="s">
@@ -5311,8 +5209,8 @@
       <c r="I54" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="J54" s="47" t="s">
-        <v>250</v>
+      <c r="J54" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K54" s="47" t="s">
         <v>50</v>
@@ -5354,8 +5252,8 @@
       <c r="I55" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="J55" s="47" t="s">
-        <v>249</v>
+      <c r="J55" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>50</v>
@@ -5397,8 +5295,8 @@
       <c r="I56" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="J56" s="47" t="s">
-        <v>248</v>
+      <c r="J56" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>50</v>
@@ -5440,8 +5338,8 @@
       <c r="I57" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="J57" s="47" t="s">
-        <v>247</v>
+      <c r="J57" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>50</v>
@@ -5483,8 +5381,8 @@
       <c r="I58" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="J58" s="47" t="s">
-        <v>246</v>
+      <c r="J58" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>50</v>
@@ -5526,8 +5424,8 @@
       <c r="I59" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="J59" s="47" t="s">
-        <v>245</v>
+      <c r="J59" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>50</v>
@@ -5569,8 +5467,8 @@
       <c r="I60" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="J60" s="47" t="s">
-        <v>244</v>
+      <c r="J60" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="K60" s="47" t="s">
         <v>50</v>

--- a/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070103000000XX/ASL3_Genovese/SIVIS/v.1.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\fse-accreditamento\GATEWAY\A1#070103000000XX\ASL3_Genovese\SIVIS\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36FDDD7-7752-46D8-8865-C727391ED861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF20679-1772-4B34-BECF-5446FE32F8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,9 +1049,6 @@
     <t>Viene segnalato all'operatore (Medico) la mancanza del dato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico) il compito di modificare il dato per la pubblicazione FSE</t>
   </si>
   <si>
-    <t>Viene segnalato all'operatore (Medico) che il documento contiene dati sensibili e non può essere pubblicato.</t>
-  </si>
-  <si>
     <t>Viene segnalato all'operatore (Medico) il dato errato e la mancata validazione. Il referto viene generato sta poi all'operatore (Medico) il compito di modificare il dato per la pubblicazione FSE</t>
   </si>
   <si>
@@ -1062,6 +1059,9 @@
   </si>
   <si>
     <t>In caso di timeout sta all’operatore di BackOffice eseguire manualmente l'operazione di retry</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore (Medico o BackOffice) che il documento contiene dati sensibili e non può essere pubblicato. L'operatore (Medico o BackOffice) nel caso in cui il codice sia errato può modificarlo e ritentare l'invio</t>
   </si>
 </sst>
 </file>
@@ -1712,6 +1712,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1733,9 +1736,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3106,10 +3106,10 @@
   <dimension ref="A1:O905"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3142,12 +3142,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="71"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3160,14 +3160,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3180,12 +3180,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3199,12 +3199,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3217,8 +3217,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3662,7 +3662,7 @@
         <v>152</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>50</v>
@@ -3705,7 +3705,7 @@
         <v>152</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>50</v>
@@ -3748,7 +3748,7 @@
         <v>153</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>50</v>
@@ -3791,7 +3791,7 @@
         <v>153</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>50</v>
@@ -3833,8 +3833,8 @@
       <c r="I22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="J22" s="79" t="s">
-        <v>256</v>
+      <c r="J22" s="67" t="s">
+        <v>255</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>50</v>
@@ -3876,8 +3876,8 @@
       <c r="I23" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="79" t="s">
-        <v>256</v>
+      <c r="J23" s="67" t="s">
+        <v>255</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>50</v>
@@ -3963,7 +3963,7 @@
         <v>157</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>50</v>
@@ -4006,7 +4006,7 @@
         <v>159</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>50</v>
@@ -4135,7 +4135,7 @@
         <v>166</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>50</v>
@@ -4350,7 +4350,7 @@
         <v>175</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>50</v>
@@ -4393,7 +4393,7 @@
         <v>179</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>50</v>
@@ -4479,7 +4479,7 @@
         <v>249</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>50</v>
@@ -4522,7 +4522,7 @@
         <v>183</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>50</v>
@@ -4651,7 +4651,7 @@
         <v>189</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>50</v>
@@ -5210,7 +5210,7 @@
         <v>215</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K54" s="47" t="s">
         <v>50</v>
@@ -5253,7 +5253,7 @@
         <v>217</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>50</v>
@@ -5296,7 +5296,7 @@
         <v>219</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>50</v>
@@ -5339,7 +5339,7 @@
         <v>221</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>50</v>
@@ -5382,7 +5382,7 @@
         <v>223</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>50</v>
@@ -5425,7 +5425,7 @@
         <v>225</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>50</v>
